--- a/CAM_Outputs/LIMIT_BREAKOUT/BOM/LIMIT_SW_Breakout_CAM_OUTPUT_A6.xlsx
+++ b/CAM_Outputs/LIMIT_BREAKOUT/BOM/LIMIT_SW_Breakout_CAM_OUTPUT_A6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\grblhal_2000_PrintNC\LIMIT_BREAKOUT\Project Outputs for LIMIT_SW_Breakout\LIMIT_SW_Breakout_UPLOAD_GERBERS_A6\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\grblhal_2000_PrintNC\CAM_Outputs\LIMIT_BREAKOUT\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,6 @@
     <t>C192778</t>
   </si>
   <si>
-    <t>5555799-1</t>
-  </si>
-  <si>
     <t>CONN MOD JACK 8P8C VERT UNSHLD</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>FP-5555799-1-MFG</t>
   </si>
   <si>
-    <t>C305983</t>
-  </si>
-  <si>
     <t>10KΩ ±1%</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>C22975</t>
+  </si>
+  <si>
+    <t>424108314</t>
+  </si>
+  <si>
+    <t>C563815</t>
   </si>
 </sst>
 </file>
@@ -191,12 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,9 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -590,19 +594,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -610,19 +614,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -630,23 +634,47 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
